--- a/biology/Zoologie/Gerbillus_perpallidus/Gerbillus_perpallidus.xlsx
+++ b/biology/Zoologie/Gerbillus_perpallidus/Gerbillus_perpallidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerbillus perpallidus ou Gerbillus (Gerbillus) perpallidus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Gerbille pâle[1]  ou Gerbille du Pallid. L'espèce est originaire d'Égypte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerbillus perpallidus ou Gerbillus (Gerbillus) perpallidus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Gerbille pâle  ou Gerbille du Pallid. L'espèce est originaire d'Égypte.
 </t>
         </is>
       </c>
